--- a/_files/requirements/master_data/master-reg_center_machine_device_h.xlsx
+++ b/_files/requirements/master_data/master-reg_center_machine_device_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CB39CD6-27D9-4015-8084-C7FC22DC3A54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F8DC4CF-B2EA-45F3-AA66-54C1DF352C96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +378,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -539,9 +545,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B412" sqref="B412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10227,14 +10237,13 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>10008</v>
-      </c>
-      <c r="B357">
-        <f t="shared" ref="B357:B420" si="1">B352+1</f>
+      <c r="A357" s="4">
+        <v>33333</v>
+      </c>
+      <c r="B357" s="4">
         <v>10072</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357" s="5">
         <v>3000376</v>
       </c>
       <c r="D357" t="s">
@@ -10254,14 +10263,13 @@
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>10008</v>
-      </c>
-      <c r="B358">
-        <f t="shared" si="1"/>
+      <c r="A358" s="4">
+        <v>33333</v>
+      </c>
+      <c r="B358" s="4">
         <v>10072</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358" s="5">
         <v>3000377</v>
       </c>
       <c r="D358" t="s">
@@ -10281,14 +10289,13 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>10008</v>
-      </c>
-      <c r="B359">
-        <f t="shared" si="1"/>
+      <c r="A359" s="4">
+        <v>33333</v>
+      </c>
+      <c r="B359" s="4">
         <v>10072</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359" s="5">
         <v>3000378</v>
       </c>
       <c r="D359" t="s">
@@ -10308,14 +10315,13 @@
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>10008</v>
-      </c>
-      <c r="B360">
-        <f t="shared" si="1"/>
+      <c r="A360" s="4">
+        <v>33333</v>
+      </c>
+      <c r="B360" s="4">
         <v>10072</v>
       </c>
-      <c r="C360" s="1">
+      <c r="C360" s="5">
         <v>3000379</v>
       </c>
       <c r="D360" t="s">
@@ -10335,14 +10341,13 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>10008</v>
-      </c>
-      <c r="B361">
-        <f t="shared" si="1"/>
+      <c r="A361" s="4">
+        <v>33333</v>
+      </c>
+      <c r="B361" s="4">
         <v>10072</v>
       </c>
-      <c r="C361" s="1">
+      <c r="C361" s="5">
         <v>3000380</v>
       </c>
       <c r="D361" t="s">
@@ -10363,10 +10368,9 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B362">
-        <f t="shared" si="1"/>
         <v>10073</v>
       </c>
       <c r="C362" s="1">
@@ -10390,10 +10394,9 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B363">
-        <f t="shared" si="1"/>
         <v>10073</v>
       </c>
       <c r="C363" s="1">
@@ -10417,10 +10420,9 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B364">
-        <f t="shared" si="1"/>
         <v>10073</v>
       </c>
       <c r="C364" s="1">
@@ -10444,10 +10446,9 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B365">
-        <f t="shared" si="1"/>
         <v>10073</v>
       </c>
       <c r="C365" s="1">
@@ -10471,10 +10472,9 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B366">
-        <f t="shared" si="1"/>
         <v>10073</v>
       </c>
       <c r="C366" s="1">
@@ -10498,10 +10498,9 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B367">
-        <f t="shared" si="1"/>
         <v>10074</v>
       </c>
       <c r="C367" s="1">
@@ -10525,10 +10524,9 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B368">
-        <f t="shared" si="1"/>
         <v>10074</v>
       </c>
       <c r="C368" s="1">
@@ -10552,10 +10550,9 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B369">
-        <f t="shared" si="1"/>
         <v>10074</v>
       </c>
       <c r="C369" s="1">
@@ -10579,10 +10576,9 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B370">
-        <f t="shared" si="1"/>
         <v>10074</v>
       </c>
       <c r="C370" s="1">
@@ -10606,10 +10602,9 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B371">
-        <f t="shared" si="1"/>
         <v>10074</v>
       </c>
       <c r="C371" s="1">
@@ -10633,10 +10628,9 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B372">
-        <f t="shared" si="1"/>
         <v>10075</v>
       </c>
       <c r="C372" s="1">
@@ -10660,10 +10654,9 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B373">
-        <f t="shared" si="1"/>
         <v>10075</v>
       </c>
       <c r="C373" s="1">
@@ -10687,10 +10680,9 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B374">
-        <f t="shared" si="1"/>
         <v>10075</v>
       </c>
       <c r="C374" s="1">
@@ -10714,10 +10706,9 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B375">
-        <f t="shared" si="1"/>
         <v>10075</v>
       </c>
       <c r="C375" s="1">
@@ -10741,10 +10732,9 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B376">
-        <f t="shared" si="1"/>
         <v>10075</v>
       </c>
       <c r="C376" s="1">
@@ -10768,10 +10758,9 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B377">
-        <f t="shared" si="1"/>
         <v>10076</v>
       </c>
       <c r="C377" s="1">
@@ -10795,10 +10784,9 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B378">
-        <f t="shared" si="1"/>
         <v>10076</v>
       </c>
       <c r="C378" s="1">
@@ -10822,10 +10810,9 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B379">
-        <f t="shared" si="1"/>
         <v>10076</v>
       </c>
       <c r="C379" s="1">
@@ -10849,10 +10836,9 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B380">
-        <f t="shared" si="1"/>
         <v>10076</v>
       </c>
       <c r="C380" s="1">
@@ -10876,10 +10862,9 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B381">
-        <f t="shared" si="1"/>
         <v>10076</v>
       </c>
       <c r="C381" s="1">
@@ -10903,10 +10888,9 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B382">
-        <f t="shared" si="1"/>
         <v>10077</v>
       </c>
       <c r="C382" s="1">
@@ -10930,10 +10914,9 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B383">
-        <f t="shared" si="1"/>
         <v>10077</v>
       </c>
       <c r="C383" s="1">
@@ -10957,10 +10940,9 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B384">
-        <f t="shared" si="1"/>
         <v>10077</v>
       </c>
       <c r="C384" s="1">
@@ -10984,10 +10966,9 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B385">
-        <f t="shared" si="1"/>
         <v>10077</v>
       </c>
       <c r="C385" s="1">
@@ -11011,10 +10992,9 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B386">
-        <f t="shared" si="1"/>
         <v>10077</v>
       </c>
       <c r="C386" s="1">
@@ -11038,10 +11018,9 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B387">
-        <f t="shared" si="1"/>
         <v>10078</v>
       </c>
       <c r="C387" s="1">
@@ -11065,10 +11044,9 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B388">
-        <f t="shared" si="1"/>
         <v>10078</v>
       </c>
       <c r="C388" s="1">
@@ -11092,10 +11070,9 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B389">
-        <f t="shared" si="1"/>
         <v>10078</v>
       </c>
       <c r="C389" s="1">
@@ -11119,10 +11096,9 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B390">
-        <f t="shared" si="1"/>
         <v>10078</v>
       </c>
       <c r="C390" s="1">
@@ -11146,10 +11122,9 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B391">
-        <f t="shared" si="1"/>
         <v>10078</v>
       </c>
       <c r="C391" s="1">
@@ -11173,10 +11148,9 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B392">
-        <f t="shared" si="1"/>
         <v>10079</v>
       </c>
       <c r="C392" s="1">
@@ -11200,10 +11174,9 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B393">
-        <f t="shared" si="1"/>
         <v>10079</v>
       </c>
       <c r="C393" s="1">
@@ -11227,10 +11200,9 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B394">
-        <f t="shared" si="1"/>
         <v>10079</v>
       </c>
       <c r="C394" s="1">
@@ -11254,10 +11226,9 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B395">
-        <f t="shared" si="1"/>
         <v>10079</v>
       </c>
       <c r="C395" s="1">
@@ -11281,10 +11252,9 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B396">
-        <f t="shared" si="1"/>
         <v>10079</v>
       </c>
       <c r="C396" s="1">
@@ -11308,10 +11278,9 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B397">
-        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="C397" s="1">
@@ -11335,10 +11304,9 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B398">
-        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="C398" s="1">
@@ -11362,10 +11330,9 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B399">
-        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="C399" s="1">
@@ -11389,10 +11356,9 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B400">
-        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="C400" s="1">
@@ -11416,10 +11382,9 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B401">
-        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="C401" s="1">
@@ -11443,10 +11408,9 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B402">
-        <f t="shared" si="1"/>
         <v>10081</v>
       </c>
       <c r="C402" s="1">
@@ -11470,10 +11434,9 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B403">
-        <f t="shared" si="1"/>
         <v>10081</v>
       </c>
       <c r="C403" s="1">
@@ -11497,10 +11460,9 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B404">
-        <f t="shared" si="1"/>
         <v>10081</v>
       </c>
       <c r="C404" s="1">
@@ -11524,10 +11486,9 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B405">
-        <f t="shared" si="1"/>
         <v>10081</v>
       </c>
       <c r="C405" s="1">
@@ -11551,10 +11512,9 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B406">
-        <f t="shared" si="1"/>
         <v>10081</v>
       </c>
       <c r="C406" s="1">
@@ -11578,10 +11538,9 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B407">
-        <f t="shared" si="1"/>
         <v>10082</v>
       </c>
       <c r="C407" s="1">
@@ -11605,10 +11564,9 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B408">
-        <f t="shared" si="1"/>
         <v>10082</v>
       </c>
       <c r="C408" s="1">
@@ -11632,10 +11590,9 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B409">
-        <f t="shared" si="1"/>
         <v>10082</v>
       </c>
       <c r="C409" s="1">
@@ -11659,10 +11616,9 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B410">
-        <f t="shared" si="1"/>
         <v>10082</v>
       </c>
       <c r="C410" s="1">
@@ -11686,10 +11642,9 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B411">
-        <f t="shared" si="1"/>
         <v>10082</v>
       </c>
       <c r="C411" s="1">
@@ -11712,14 +11667,13 @@
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A412">
-        <v>10008</v>
-      </c>
-      <c r="B412">
-        <f t="shared" si="1"/>
+      <c r="A412" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B412" s="2">
         <v>10083</v>
       </c>
-      <c r="C412" s="1">
+      <c r="C412" s="3">
         <v>3000431</v>
       </c>
       <c r="D412" t="s">
@@ -11739,14 +11693,13 @@
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A413">
-        <v>10008</v>
-      </c>
-      <c r="B413">
-        <f t="shared" si="1"/>
+      <c r="A413" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B413" s="2">
         <v>10083</v>
       </c>
-      <c r="C413" s="1">
+      <c r="C413" s="3">
         <v>3000432</v>
       </c>
       <c r="D413" t="s">
@@ -11766,14 +11719,13 @@
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A414">
-        <v>10008</v>
-      </c>
-      <c r="B414">
-        <f t="shared" si="1"/>
+      <c r="A414" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B414" s="2">
         <v>10083</v>
       </c>
-      <c r="C414" s="1">
+      <c r="C414" s="3">
         <v>3000433</v>
       </c>
       <c r="D414" t="s">
@@ -11793,14 +11745,13 @@
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A415">
-        <v>10008</v>
-      </c>
-      <c r="B415">
-        <f t="shared" si="1"/>
+      <c r="A415" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B415" s="2">
         <v>10083</v>
       </c>
-      <c r="C415" s="1">
+      <c r="C415" s="3">
         <v>3000434</v>
       </c>
       <c r="D415" t="s">
@@ -11820,14 +11771,13 @@
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A416">
-        <v>10008</v>
-      </c>
-      <c r="B416">
-        <f t="shared" si="1"/>
+      <c r="A416" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B416" s="2">
         <v>10083</v>
       </c>
-      <c r="C416" s="1">
+      <c r="C416" s="3">
         <v>3000435</v>
       </c>
       <c r="D416" t="s">
@@ -11851,7 +11801,7 @@
         <v>10008</v>
       </c>
       <c r="B417">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B362:B420" si="1">B412+1</f>
         <v>10084</v>
       </c>
       <c r="C417" s="1">
